--- a/Log Book/Back End.xlsx
+++ b/Log Book/Back End.xlsx
@@ -1,21 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0DA196-0FBE-41A4-AE52-22BDA9B79242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ai zakiyah" sheetId="1" r:id="rId1"/>
+    <sheet name="Hendra" sheetId="3" r:id="rId2"/>
+    <sheet name="Nasrul" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Membuat function CRUD CANDIDATE</t>
+  </si>
+  <si>
+    <t>Masalah : tidak ada</t>
+  </si>
+  <si>
+    <t>Membuat function CRUD C_document_list</t>
+  </si>
+  <si>
+    <t>Membuat API registrasi</t>
+  </si>
+  <si>
+    <t>permasalahan : belum ada</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,14 +67,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -131,9 +163,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +215,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,13 +407,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226C65E2-8EF4-4037-BDED-E66DA8C0B92C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81AB97B-74FA-486E-918D-1E0BB9513557}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Log Book/Back End.xlsx
+++ b/Log Book/Back End.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0DA196-0FBE-41A4-AE52-22BDA9B79242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB4D909-9C34-409F-A3DE-301BDB6549D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ai zakiyah" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Membuat function CRUD CANDIDATE</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>permasalahan : belum ada</t>
+  </si>
+  <si>
+    <t>next membuat API candidate</t>
+  </si>
+  <si>
+    <t>membuat function CRUD c_schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membuat function CRUD USER </t>
+  </si>
+  <si>
+    <t>Membuat function CRUD C_CHOOSE_MAJOR</t>
   </si>
 </sst>
 </file>
@@ -408,12 +420,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -422,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226C65E2-8EF4-4037-BDED-E66DA8C0B92C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -452,10 +489,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81AB97B-74FA-486E-918D-1E0BB9513557}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +519,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Log Book/Back End.xlsx
+++ b/Log Book/Back End.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB4D909-9C34-409F-A3DE-301BDB6549D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ai zakiyah" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Membuat function CRUD CANDIDATE</t>
   </si>
@@ -44,12 +43,15 @@
   </si>
   <si>
     <t>Membuat function CRUD C_CHOOSE_MAJOR</t>
+  </si>
+  <si>
+    <t>API registrasi Selesai.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,26 +177,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,23 +212,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,10 +387,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -456,11 +424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226C65E2-8EF4-4037-BDED-E66DA8C0B92C}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,13 +450,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81AB97B-74FA-486E-918D-1E0BB9513557}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Log Book/Back End.xlsx
+++ b/Log Book/Back End.xlsx
@@ -1,42 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4F6936-D0BB-4473-B5E4-6ADDCD2005F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ai zakiyah" sheetId="1" r:id="rId1"/>
     <sheet name="Hendra" sheetId="3" r:id="rId2"/>
-    <sheet name="Nasrul" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>Membuat function CRUD CANDIDATE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Masalah : tidak ada</t>
   </si>
   <si>
-    <t>Membuat function CRUD C_document_list</t>
-  </si>
-  <si>
     <t>Membuat API registrasi</t>
   </si>
   <si>
     <t>permasalahan : belum ada</t>
-  </si>
-  <si>
-    <t>next membuat API candidate</t>
-  </si>
-  <si>
-    <t>membuat function CRUD c_schools</t>
   </si>
   <si>
     <t xml:space="preserve">Membuat function CRUD USER </t>
@@ -51,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,7 +132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,9 +165,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,6 +217,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -387,7 +409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -405,17 +427,17 @@
         <v>44025</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -424,7 +446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -442,12 +464,12 @@
         <v>44025</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,53 +477,6 @@
         <v>44026</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>44025</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
